--- a/data/income_statement/2digits/size/31_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/31_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>31-Manufacture of furniture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>31-Manufacture of furniture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,842 +841,952 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2213876.04467</v>
+        <v>2212676.49943</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2636399.0607</v>
+        <v>2671524.96707</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3329111.42426</v>
+        <v>3426695.56953</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4193160.57949</v>
+        <v>4134699.53325</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4821320.51445</v>
+        <v>5104325.161189999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5936508.45729</v>
+        <v>6337556.899470001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6582216.70217</v>
+        <v>6842866.253649999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7096923.531359999</v>
+        <v>7309528.535189999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9485141.497459998</v>
+        <v>9564406.36678</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10972162.20685</v>
+        <v>11052715.3574</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13299094.75469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13386256.47815</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16606364.654</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1837676.25656</v>
+        <v>1834878.0697</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2163026.73111</v>
+        <v>2179929.93266</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2800264.30708</v>
+        <v>2865791.82658</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3523043.81788</v>
+        <v>3446520.74553</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3983783.93946</v>
+        <v>4228993.20471</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5020970.07555</v>
+        <v>5369203.51168</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5594522.47655</v>
+        <v>5780074.08439</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6146197.83833</v>
+        <v>6291223.83595</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8123322.256949999</v>
+        <v>8182858.82337</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8622792.7037</v>
+        <v>8694859.042709999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10272698.4163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10269515.87918</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12879235.837</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>353657.78918</v>
+        <v>355315.01632</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>444724.44912</v>
+        <v>461994.92033</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>498216.0639</v>
+        <v>527495.95534</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>635933.91215</v>
+        <v>652383.47109</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>790005.37208</v>
+        <v>825697.9129199999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>862345.92091</v>
+        <v>910740.2058400001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>920279.1319500001</v>
+        <v>991388.8057500001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>852704.99158</v>
+        <v>919760.25026</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1227387.19149</v>
+        <v>1240438.17881</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2112633.20554</v>
+        <v>2132854.79298</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2820280.89287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2910261.3231</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3465278.868</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>22541.99893</v>
+        <v>22483.41341</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>28647.88047</v>
+        <v>29600.11408</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>30631.05328</v>
+        <v>33407.78761</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>34182.84946</v>
+        <v>35795.31663</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>47531.20291</v>
+        <v>49634.04356000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>53192.46083</v>
+        <v>57613.18195000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>67415.09367</v>
+        <v>71403.36351000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>98020.70145000001</v>
+        <v>98544.44898</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>134432.04902</v>
+        <v>141109.3646</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>236736.29761</v>
+        <v>225001.52171</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>206115.44552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>206479.27587</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>261849.949</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>59885.09545</v>
+        <v>69303.29454999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>70096.86742</v>
+        <v>79106.37202</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>71944.89703000001</v>
+        <v>85992.74426000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>80645.34578</v>
+        <v>90298.63982</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>84194.25848</v>
+        <v>108881.29942</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>100434.13022</v>
+        <v>123472.45989</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>104908.13366</v>
+        <v>110142.99968</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>125475.45028</v>
+        <v>140043.26244</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>175585.78019</v>
+        <v>194441.64228</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>269516.14208</v>
+        <v>282543.66519</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>271712.79089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>274966.5318</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>360108.327</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>21812.62274</v>
+        <v>19941.87077</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>29589.65768</v>
+        <v>30624.99179</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>29409.87959</v>
+        <v>29370.28309</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>31019.16459</v>
+        <v>30718.48593</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>33808.87828</v>
+        <v>35515.61844</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>51020.85791</v>
+        <v>57988.06393</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>61768.74062</v>
+        <v>64689.04997</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>80505.72306</v>
+        <v>88072.08554</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>85058.72117</v>
+        <v>103193.83516</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>133805.26894</v>
+        <v>138971.04446</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>142215.32041</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>140842.03792</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>195979.168</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>36458.94558</v>
+        <v>47587.99478</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>37699.58122</v>
+        <v>44738.52264</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>38559.82299</v>
+        <v>52668.70332</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>46207.94393</v>
+        <v>55890.1227</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>46738.60668</v>
+        <v>68496.66024</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>42322.83556</v>
+        <v>58264.72429999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>35765.84423</v>
+        <v>37574.33452</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>38594.52554</v>
+        <v>44097.96753</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>80442.48306</v>
+        <v>80991.02906</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>114235.55782</v>
+        <v>121488.38626</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>110214.8607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>114639.21571</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>145091.679</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1613.52713</v>
+        <v>1773.429</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2807.62852</v>
+        <v>3742.85759</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3975.19445</v>
+        <v>3953.75785</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3418.23726</v>
+        <v>3690.03119</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3646.77352</v>
+        <v>4869.02074</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7090.43675</v>
+        <v>7219.67166</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7373.548809999999</v>
+        <v>7879.61519</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>6375.20168</v>
+        <v>7873.20937</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>10084.57596</v>
+        <v>10256.77806</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>21475.31532</v>
+        <v>22084.23447</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>19282.60978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19485.27817</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>19037.48</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2153990.94922</v>
+        <v>2143373.20488</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2566302.19328</v>
+        <v>2592418.59505</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3257166.52723</v>
+        <v>3340702.82527</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4112515.23371</v>
+        <v>4044400.89343</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4737126.25597</v>
+        <v>4995443.86177</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5836074.32707</v>
+        <v>6214084.43958</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6477308.568510001</v>
+        <v>6732723.25397</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6971448.08108</v>
+        <v>7169485.27275</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9309555.71727</v>
+        <v>9369964.7245</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10702646.06477</v>
+        <v>10770171.69221</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>13027381.9638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13111289.94635</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>16246256.327</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1762701.63496</v>
+        <v>1750690.07778</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2087510.36221</v>
+        <v>2097641.11583</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2701254.73772</v>
+        <v>2752804.61688</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3425951.50497</v>
+        <v>3349887.07311</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3885505.29063</v>
+        <v>4086459.19424</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4821290.76708</v>
+        <v>5110832.65021</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5321118.040159999</v>
+        <v>5495923.99529</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5802079.95749</v>
+        <v>5929386.81343</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7867120.336279999</v>
+        <v>7853446.427189999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8721530.60265</v>
+        <v>8812389.982040001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10639746.62825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10667867.52337</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13350115.403</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1483650.1564</v>
+        <v>1483875.67592</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1727411.83086</v>
+        <v>1753367.79192</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2243964.26736</v>
+        <v>2282479.31196</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2857726.34697</v>
+        <v>2817026.10577</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3289073.58825</v>
+        <v>3422068.90234</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4058725.40916</v>
+        <v>4311597.5742</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4543598.85844</v>
+        <v>4683718.87328</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4774419.07687</v>
+        <v>4921327.34642</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6434711.402939999</v>
+        <v>6502801.51466</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7519623.46386</v>
+        <v>7539638.20223</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9025886.76131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9027518.265319999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11212921.236</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>251456.30902</v>
+        <v>236131.59059</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>319506.89845</v>
+        <v>299393.16432</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>404679.89921</v>
+        <v>417135.54985</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>507557.21225</v>
+        <v>474583.62581</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>515668.38368</v>
+        <v>576278.4079</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>615960.05795</v>
+        <v>647283.14406</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>637486.13595</v>
+        <v>645543.57158</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>830250.7195499999</v>
+        <v>812750.31947</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1185356.69659</v>
+        <v>1113019.72181</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>897621.5173099999</v>
+        <v>947260.89568</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1307303.48702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1315819.53328</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1789402.857</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>24272.48717</v>
+        <v>27568.47514</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>36327.06808</v>
+        <v>37539.26415</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>47456.93349</v>
+        <v>48311.37018999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>55963.50918</v>
+        <v>53436.68889</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>73771.12616</v>
+        <v>80941.54614000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>131415.5713</v>
+        <v>136403.98967</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>128064.56536</v>
+        <v>150193.16339</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>166505.92519</v>
+        <v>163332.25023</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>206341.93434</v>
+        <v>197980.70816</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>246164.45776</v>
+        <v>277838.55686</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>251224.61771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>285234.52421</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>289220.804</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3322.68237</v>
+        <v>3114.33613</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4264.564820000001</v>
+        <v>7340.89544</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5153.63766</v>
+        <v>4878.38488</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4704.43657</v>
+        <v>4840.652639999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>6992.19254</v>
+        <v>7170.337860000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>15189.72867</v>
+        <v>15547.94228</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11968.48041</v>
+        <v>16468.38704</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>30904.23588</v>
+        <v>31976.89731</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>40710.30241</v>
+        <v>39644.48256</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>58121.16372</v>
+        <v>47652.32727</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>55331.76221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>39295.20056</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>58570.506</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>391289.31426</v>
+        <v>392683.1271</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>478791.83107</v>
+        <v>494777.47922</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>555911.78951</v>
+        <v>587898.20839</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>686563.72874</v>
+        <v>694513.8203200001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>851620.96534</v>
+        <v>908984.66753</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1014783.55999</v>
+        <v>1103251.78937</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1156190.52835</v>
+        <v>1236799.25868</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1169368.12359</v>
+        <v>1240098.45932</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1442435.38099</v>
+        <v>1516518.29731</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1981115.46212</v>
+        <v>1957781.71017</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2387635.33555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2443422.42298</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2896140.924</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>259559.243</v>
+        <v>265337.69395</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>325298.12362</v>
+        <v>336734.85527</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>385157.68381</v>
+        <v>406078.91915</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>484051.90285</v>
+        <v>486689.75618</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>573022.02917</v>
+        <v>606168.1113099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>689844.7675900001</v>
+        <v>737018.1953500001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>769192.05855</v>
+        <v>814691.3985599999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>833625.6752899999</v>
+        <v>879986.78772</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>918202.1529700001</v>
+        <v>970258.96797</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1244941.81528</v>
+        <v>1265118.63834</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1479056.95582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1519438.66479</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1616576.119</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1551.33949</v>
+        <v>1669.54538</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1419.56455</v>
+        <v>1426.88888</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3782.83313</v>
+        <v>4760.915690000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1256.74211</v>
+        <v>2134.48366</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1913.85913</v>
+        <v>4857.2246</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1920.10684</v>
+        <v>2232.39133</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2366.9207</v>
+        <v>2394.43237</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5569.02772</v>
+        <v>5653.55478</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1878.3294</v>
+        <v>2418.76947</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>17161.91024</v>
+        <v>18609.43644</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11670.43405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13837.36844</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13335.696</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>120101.54347</v>
+        <v>127755.42573</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>154911.16563</v>
+        <v>165065.18837</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>168360.65831</v>
+        <v>181491.90614</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>214090.02588</v>
+        <v>219802.75144</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>262487.84373</v>
+        <v>283297.23033</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>308339.3441</v>
+        <v>338973.37201</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>345552.63924</v>
+        <v>376103.65935</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>380850.57174</v>
+        <v>421581.25914</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>431969.60305</v>
+        <v>484161.01761</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>630431.0239299999</v>
+        <v>654621.31539</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>757849.97863</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>788582.69416</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>782815.139</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>137906.36004</v>
+        <v>135912.72284</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>168967.39344</v>
+        <v>170242.77802</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>213014.19237</v>
+        <v>219826.09732</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>268705.13486</v>
+        <v>264752.52108</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>308620.32631</v>
+        <v>318013.65638</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>379585.31665</v>
+        <v>395812.43201</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>421272.49861</v>
+        <v>436193.30684</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>447206.07583</v>
+        <v>452751.9738</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>484354.22052</v>
+        <v>483679.18089</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>597348.88111</v>
+        <v>591887.88651</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>709536.54314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>717018.60219</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>820425.284</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>131730.07126</v>
+        <v>127345.43315</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>153493.70745</v>
+        <v>158042.62395</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>170754.1057</v>
+        <v>181819.28924</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>202511.82589</v>
+        <v>207824.06414</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>278598.93617</v>
+        <v>302816.55622</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>324938.7924</v>
+        <v>366233.59402</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>386998.4698</v>
+        <v>422107.86012</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>335742.4483</v>
+        <v>360111.6716</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>524233.22802</v>
+        <v>546259.3293400001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>736173.6468400001</v>
+        <v>692663.07183</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>908578.37973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>923983.7581900001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1279564.805</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>33774.71491</v>
+        <v>41774.31918</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>42466.98911</v>
+        <v>52029.07859</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>57637.31227</v>
+        <v>62289.60374</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>48003.76668</v>
+        <v>49150.65788000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>77331.73422</v>
+        <v>93075.05077</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>92487.45498000001</v>
+        <v>103623.549</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>149659.97008</v>
+        <v>175450.56734</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>142871.47542</v>
+        <v>162898.73831</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>156608.03197</v>
+        <v>181024.26445</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>586670.0362699999</v>
+        <v>653833.64585</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>450157.80926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>465019.64104</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>675407.107</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.25836</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>741.10813</v>
+        <v>0.11349</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>5.13796</v>
+        <v>1566.70389</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>91.7727</v>
@@ -1796,25 +1807,30 @@
         <v>0.28487</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2266.1692</v>
+        <v>30</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>857.948</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>856.15076</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>691.11857</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>812.1636</v>
+        <v>3.17844</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>0</v>
@@ -1823,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1906.16553</v>
+        <v>1068.2234</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>492.58999</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1669.96908</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1838,52 +1854,62 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>3990.6705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>43.563</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4587.73782</v>
+        <v>4827.66652</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3997.53558</v>
+        <v>3721.00898</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4066.04879</v>
+        <v>4255.164809999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5562.807049999999</v>
+        <v>5462.4815</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8502.457839999999</v>
+        <v>8455.764380000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>10059.36176</v>
+        <v>11668.99741</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>12852.3797</v>
+        <v>12918.21472</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>11833.41905</v>
+        <v>11998.70619</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>19823.39504</v>
+        <v>20614.05875</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>27178.12729</v>
+        <v>29917.93112</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>43869.54809</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>42458.85802</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>47788.529</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>70.71478</v>
@@ -1892,157 +1918,177 @@
         <v>21.56718</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>70.89288999999999</v>
+        <v>70.70613</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>270.47597</v>
+        <v>195.97597</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>662.9308599999999</v>
+        <v>633.82219</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>681.19105</v>
+        <v>673.8749499999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1434.02352</v>
+        <v>1487.60693</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1556.76457</v>
+        <v>1806.46602</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>888.56791</v>
+        <v>885.85604</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>9021.994789999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>13167.72072</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>13206.06203</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3678.046</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>902.1868000000001</v>
+        <v>446.65767</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>832.98787</v>
+        <v>568.30787</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>222.95514</v>
+        <v>222.03714</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>959.97758</v>
+        <v>1331.39264</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>523.83357</v>
+        <v>2862.37173</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>614.10053</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1003.43281</v>
+        <v>1909.57224</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1061.12711</v>
+        <v>1015.34635</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2744.64442</v>
+        <v>2627.1282</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4005.10837</v>
+        <v>3996.30837</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3677.47933</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3656.05171</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3482.48</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>291.17876</v>
+        <v>249.72615</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>174.80303</v>
+        <v>174.6495</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>697.60604</v>
+        <v>1218.69798</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>663.5918</v>
+        <v>663.21471</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>421.50562</v>
+        <v>322.65059</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>530.6752299999999</v>
+        <v>505.89861</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>575.8551</v>
+        <v>445.21753</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>360.4496</v>
+        <v>359.99638</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1317.26002</v>
+        <v>1612.09383</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1196.90031</v>
+        <v>1205.529</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2137.24581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2152.77766</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5658.573</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>19682.53379</v>
+        <v>27347.95475</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>28247.05857</v>
+        <v>39729.80018</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>41346.2477</v>
+        <v>45305.9839</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>23661.81135</v>
+        <v>25868.42282</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>51551.351</v>
+        <v>55435.40398</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>47982.50214</v>
+        <v>57216.74604999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>101285.41664</v>
+        <v>123564.36815</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>87690.58269</v>
+        <v>109705.99097</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>93884.81378</v>
+        <v>109635.01921</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>480440.75958</v>
+        <v>541341.97964</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>292946.00118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>311876.11981</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>539670.572</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>210.45225</v>
+        <v>302.29004</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>187.06134</v>
@@ -2051,22 +2097,22 @@
         <v>147.50305</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>202.21449</v>
+        <v>223.31364</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>2195.40522</v>
+        <v>2286.76374</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>6549.67994</v>
+        <v>7435.01285</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>9572.39752</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>9725.686720000002</v>
+        <v>9723.831340000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>3797.71318</v>
+        <v>12400.98228</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>25264.53011</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>30481.01411</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5215.133</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,256 +2156,291 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>3.04509</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>614.8991</v>
+        <v>613.4672800000001</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7173.50159</v>
+        <v>8529.05091</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7371.65236</v>
+        <v>7424.47357</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>10262.32997</v>
+        <v>9493.20127</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>16249.92735</v>
+        <v>14972.89551</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>13463.04557</v>
+        <v>23067.06962</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>23911.01395</v>
+        <v>24187.93035</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>22443.8748</v>
+        <v>25553.19025</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>28971.32673</v>
+        <v>28286.25119</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>34148.30766</v>
+        <v>33248.84127</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>36681.54752</v>
+        <v>42441.90554</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>59888.12952</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>61188.7577</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>69012.26300000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>30060.14184</v>
+        <v>37756.07305</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>36756.28464</v>
+        <v>48232.92447</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>46390.19278</v>
+        <v>52552.90177</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>31424.78706</v>
+        <v>33180.32972</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>71524.27506999999</v>
+        <v>78386.28343000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>69294.96361000001</v>
+        <v>84800.04695999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>133684.35379</v>
+        <v>161559.12091</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>116257.94065</v>
+        <v>133621.19967</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>115030.49958</v>
+        <v>136494.58641</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>603574.4186699999</v>
+        <v>632770.40585</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>350930.0541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>392265.10232</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>551171.222</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>508.647</v>
+        <v>506.53226</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>718.9049100000001</v>
+        <v>1299.86284</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>722.3366</v>
+        <v>1185.3814</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2312.21125</v>
+        <v>2264.99216</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>737.17849</v>
+        <v>775.1601999999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1748.45394</v>
+        <v>1624.47822</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4887.78776</v>
+        <v>4230.04152</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2796.0152</v>
+        <v>2784.7097</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2222.65589</v>
+        <v>1683.04428</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>9388.40619</v>
+        <v>9375.64198</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5318.32105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5312.08426</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7822.209</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4958.523389999999</v>
+        <v>5835.4219</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2674.86967</v>
+        <v>2254.39985</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3041.6611</v>
+        <v>3192.91372</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4738.65617</v>
+        <v>4729.690320000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>12920.9063</v>
+        <v>13882.06439</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4957.06292</v>
+        <v>5745.25153</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11562.57081</v>
+        <v>8856.065960000002</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>15333.21103</v>
+        <v>14893.27229</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>9749.03276</v>
+        <v>9398.018410000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>22087.4285</v>
+        <v>20986.66789</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>28110.09845</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>28206.54245</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>33416.059</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>271.86048</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>97.75172000000001</v>
+        <v>94.62882</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>173.61566</v>
+        <v>136.38971</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>133.29351</v>
+        <v>141.79943</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>931.94196</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>127.96626</v>
+        <v>281.74726</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>687.0872099999999</v>
+        <v>494.54024</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>67.79919</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>77.95119</v>
+        <v>77.95110000000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>7452.25351</v>
+        <v>1215.55351</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>128.72274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>128.73508</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>182.03</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>21353.13643</v>
+        <v>27857.32336</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>30407.84882</v>
+        <v>41944.62121</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>39278.18235</v>
+        <v>44745.32045000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>22004.67101</v>
+        <v>23472.43367</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>50913.68796</v>
+        <v>56597.18227</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>49323.84138000001</v>
+        <v>62332.25393</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>100392.72681</v>
+        <v>130667.25049</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>73296.01719</v>
+        <v>93827.2215</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>88793.28573</v>
+        <v>102028.24738</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>521848.22926</v>
+        <v>557384.69312</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>281408.20359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>322414.42685</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>490896.31</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>230.27872</v>
+        <v>364.12892</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>167.65521</v>
@@ -2363,22 +2449,22 @@
         <v>143.6553</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>151.64478</v>
+        <v>481.64155</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3065.9724</v>
+        <v>3343.69765</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>6807.52737</v>
+        <v>7750.10713</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>9824.695669999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>9984.36708</v>
+        <v>9982.511699999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>4063.43207</v>
+        <v>12978.92372</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>29112.94295</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>26816.95544</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>5613.119</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2420,253 +2511,288 @@
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>5.71152</v>
+        <v>1.13324</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2737.69582</v>
+        <v>2920.80613</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2661.26387</v>
+        <v>2443.7661</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3030.71765</v>
+        <v>3149.21707</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2084.31028</v>
+        <v>2089.77253</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2954.58796</v>
+        <v>2856.23696</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6330.11174</v>
+        <v>7066.20889</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6329.48553</v>
+        <v>7486.52703</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>14780.53096</v>
+        <v>12065.68529</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10124.14194</v>
+        <v>10328.40152</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>13679.44674</v>
+        <v>14693.77316</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9147.752829999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9386.35824</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>13241.495</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>60104.35918</v>
+        <v>58682.82877</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>50615.8408</v>
+        <v>51104.0921</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>61205.89264</v>
+        <v>64711.39209</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>84309.94308</v>
+        <v>88304.64649</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>90398.95379</v>
+        <v>106720.07643</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>123644.60074</v>
+        <v>144276.31879</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>161236.23682</v>
+        <v>178718.11027</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>191740.82176</v>
+        <v>209473.47367</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>231323.50779</v>
+        <v>247386.38814</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>385955.3017</v>
+        <v>396560.84018</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>411509.89032</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>384653.5482</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>408095.225</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>55902.00433</v>
+        <v>52167.24947</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>46959.89059</v>
+        <v>47794.86047</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>57898.35707</v>
+        <v>59158.56256000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>80220.98106999999</v>
+        <v>84169.57242</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>79799.76164</v>
+        <v>95085.47470999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>110978.7229</v>
+        <v>131156.80403</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>145990.72824</v>
+        <v>162366.08275</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>174880.69144</v>
+        <v>194206.53655</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>211623.97028</v>
+        <v>227195.03581</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>353537.55193</v>
+        <v>356479.36804</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>378731.4742</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>353735.7609</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>376256.812</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>4202.35485</v>
+        <v>6515.579299999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3655.95021</v>
+        <v>3309.23163</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3307.53557</v>
+        <v>5552.82953</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4088.96201</v>
+        <v>4135.07407</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>10599.19215</v>
+        <v>11634.60172</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>12665.87784</v>
+        <v>13119.51476</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>15245.50858</v>
+        <v>16352.02752</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>16860.13032</v>
+        <v>15266.93712</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>19699.53751</v>
+        <v>20191.35233</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>32417.74977</v>
+        <v>40081.47214</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>32778.41612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>30917.7873</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>31838.413</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>75340.28515000001</v>
+        <v>72680.85051</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>108588.57112</v>
+        <v>110734.68597</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>120795.33255</v>
+        <v>126844.59912</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>134780.86243</v>
+        <v>135489.74581</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>194007.44153</v>
+        <v>210785.24713</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>224486.68303</v>
+        <v>240780.77727</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>241737.84927</v>
+        <v>257281.19628</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>170615.16131</v>
+        <v>179915.73657</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>334487.25262</v>
+        <v>343402.61924</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>333313.96274</v>
+        <v>317165.47165</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>596296.2445700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>612084.7487100001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>995705.465</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>13135.42535</v>
+        <v>11707.24316</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>16127.05891</v>
+        <v>15706.8766</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>23916.41367</v>
+        <v>21749.74158</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>41135.55084</v>
+        <v>36955.75501</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>34038.73082</v>
+        <v>52777.885</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>53112.22105</v>
+        <v>53904.51224</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>51025.62566</v>
+        <v>56849.95941</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>62000.43444</v>
+        <v>60465.53132</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>80680.21098</v>
+        <v>77796.68045</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>106504.86747</v>
+        <v>105161.20003</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>123222.51424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>108518.25454</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>139237.623</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>164.68734</v>
+        <v>35.29901</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>405.73443</v>
@@ -2675,343 +2801,386 @@
         <v>178.40813</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>272.52992</v>
+        <v>271.40639</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>631.02263</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>536.3555799999999</v>
+        <v>716.89546</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>435.76538</v>
+        <v>429.98288</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>330.00352</v>
+        <v>267.15374</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>7838.901769999999</v>
+        <v>1334.75292</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>677.31786</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2087.74496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2091.58496</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2646.25</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>12970.73801</v>
+        <v>11671.94415</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>15721.32448</v>
+        <v>15301.14217</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>23738.00554</v>
+        <v>21571.33345</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>40863.02092</v>
+        <v>36684.34862</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>33407.70819</v>
+        <v>52146.86237</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>52575.86547</v>
+        <v>53187.61678</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>50589.86028</v>
+        <v>56419.97653</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>61670.43092</v>
+        <v>60198.37758</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>72841.30920999999</v>
+        <v>76461.92753</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>105827.54961</v>
+        <v>104483.88217</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>121134.76928</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>106426.66958</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>136591.373</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>21409.99557</v>
+        <v>19906.72676</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>12836.41573</v>
+        <v>12126.76048</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>105040.18229</v>
+        <v>117500.23685</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>22595.07247</v>
+        <v>21354.48624</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>22925.33544</v>
+        <v>27973.75559</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>93409.22623999999</v>
+        <v>90599.85386</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>32753.52392</v>
+        <v>38129.20711</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>144098.08787</v>
+        <v>165642.36338</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>60462.94922</v>
+        <v>61172.37839</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>121851.22469</v>
+        <v>126625.67953</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>84405.53767000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>81479.90193000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>71066.524</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>253.00026</v>
+        <v>1290.15756</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>309.70916</v>
+        <v>125.9365</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>245.77264</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>611.2064499999999</v>
+        <v>452.4046</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>743.2614699999999</v>
+        <v>758.78473</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4796.61483</v>
+        <v>4060.73385</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>528.14639</v>
+        <v>1632.89189</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1912.50096</v>
+        <v>1914.80237</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2165.80866</v>
+        <v>1928.78574</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>766.7834399999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3720.81869</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2533.032</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6251.984</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1754.74747</v>
+        <v>1148.03056</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1034.75629</v>
+        <v>1025.35522</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4600.54773</v>
+        <v>4426.7864</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1517.61723</v>
+        <v>1079.80232</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>674.3041899999999</v>
+        <v>683.53863</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1412.53765</v>
+        <v>1551.87794</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1876.2735</v>
+        <v>4655.9834</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>30608.95104</v>
+        <v>30917.09818</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1690.98516</v>
+        <v>2214.38808</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2952.0941</v>
+        <v>3073.15339</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3857.19422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2913.50282</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2180.661</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>19402.24784</v>
+        <v>17468.53864</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11491.95028</v>
+        <v>10975.46876</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>100193.86192</v>
+        <v>112827.67781</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>20466.24879</v>
+        <v>19822.27932</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>21507.76978</v>
+        <v>26531.43223</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>87200.07376</v>
+        <v>84987.24206999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>30349.10403</v>
+        <v>31840.33182</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>111576.63587</v>
+        <v>132810.46283</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>56606.1554</v>
+        <v>57029.20457</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>118132.34715</v>
+        <v>122785.7427</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>76827.52476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>76033.36711000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>62633.879</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>67065.71493</v>
+        <v>64481.36691</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>111879.2143</v>
+        <v>114314.80209</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>39671.56393</v>
+        <v>31094.10385</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>153321.3408</v>
+        <v>151091.01458</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>205120.83691</v>
+        <v>235589.37654</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>184189.67784</v>
+        <v>204085.43565</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>260009.95101</v>
+        <v>276001.94858</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>88517.50787999999</v>
+        <v>74738.90451000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>354704.51438</v>
+        <v>360026.9213</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>317967.60552</v>
+        <v>295700.9921499999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>635113.22114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>639123.10132</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1063876.564</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>16219.52071</v>
+        <v>15545.32088</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>21981.97933</v>
+        <v>21861.97496</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>27424.98243</v>
+        <v>28636.30374</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>30530.6211</v>
+        <v>30646.62562</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>40592.44407</v>
+        <v>42681.78679999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>48611.77527000001</v>
+        <v>51671.79653</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>49274.99033</v>
+        <v>50385.95925</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>46862.03338</v>
+        <v>47538.62671</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>63551.1951</v>
+        <v>64579.73389</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>95874.62784999999</v>
+        <v>93984.88081999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>126769.07208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>125729.30244</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>196876.392</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>50846.19422</v>
+        <v>48936.04603</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>89897.23497</v>
+        <v>92452.82712999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>12246.5815</v>
+        <v>2457.80011</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>122790.7197</v>
+        <v>120444.38896</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>164528.39284</v>
+        <v>192907.58974</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>135577.90257</v>
+        <v>152413.63912</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>210734.96068</v>
+        <v>225615.98933</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>41655.4745</v>
+        <v>27200.2778</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>291153.31928</v>
+        <v>295447.18741</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>222092.97767</v>
+        <v>201716.11133</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>508344.14906</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>513393.79888</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>867000.172</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>436</v>
+        <v>372</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>530</v>
+        <v>426</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>604</v>
+        <v>528</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>648</v>
+        <v>519</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>716</v>
+        <v>543</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>442</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>